--- a/TemplateGOTests/data/image.xlsx
+++ b/TemplateGOTests/data/image.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\template-go\TemplateGOTests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AECC15-69E3-4540-9FB1-D0F94CB1DE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883FC54F-BDB1-4AC6-9A76-AF041094CBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40F13A56-BB45-4C50-B798-DA250D12F3B8}"/>
+    <workbookView xWindow="10770" yWindow="420" windowWidth="14430" windowHeight="14880" xr2:uid="{40F13A56-BB45-4C50-B798-DA250D12F3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="图片测试" sheetId="1" r:id="rId1"/>
@@ -54,14 +54,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>${file|img}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${url|img}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>来自文件，且不合并单元格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,6 +63,14 @@
   </si>
   <si>
     <t>来自文件，但已经存在图片时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${file|image}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${url|image}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -188,7 +188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -201,9 +201,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -233,15 +230,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>949569</xdr:colOff>
+      <xdr:colOff>956829</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>533401</xdr:rowOff>
+      <xdr:rowOff>542925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -273,8 +270,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="457200" y="1828801"/>
-          <a:ext cx="949569" cy="533400"/>
+          <a:off x="468458" y="1836594"/>
+          <a:ext cx="947303" cy="533399"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -585,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A84023-863D-424B-8F28-AA97F17132F8}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -621,12 +618,12 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -634,12 +631,12 @@
         <f t="shared" ref="A4:A7" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -648,11 +645,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -660,8 +657,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/TemplateGOTests/data/image.xlsx
+++ b/TemplateGOTests/data/image.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\template-go\TemplateGOTests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883FC54F-BDB1-4AC6-9A76-AF041094CBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E5DCEB-2AE8-441C-947B-4BC955BF7890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10770" yWindow="420" windowWidth="14430" windowHeight="14880" xr2:uid="{40F13A56-BB45-4C50-B798-DA250D12F3B8}"/>
+    <workbookView xWindow="2010" yWindow="390" windowWidth="17010" windowHeight="14715" xr2:uid="{40F13A56-BB45-4C50-B798-DA250D12F3B8}"/>
   </bookViews>
   <sheets>
-    <sheet name="图片测试" sheetId="1" r:id="rId1"/>
+    <sheet name="大小及位置测试" sheetId="3" r:id="rId1"/>
+    <sheet name="图片测试" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">大小及位置测试!$A$1:$AF$58</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>#</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -70,7 +74,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${url|image}</t>
+    <t>${file|image:padding=1cm}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${file|image:padding=0.5cm,fw=4cm}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片应该偏离单元格
+如左侧虚线所示区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${file|image:fw=8cm,fh=8cm}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片应该按虚线区域居中显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目(原图: 240x160)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${url|image:fh=2cm}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${file| image : padding = 0.1cm, fw = 2cm}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,8 +165,20 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -182,18 +227,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -206,6 +312,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -227,18 +351,1767 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>89400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>5624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAC3D05-5586-B7C2-0BE2-AC60C5A3023C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3990974"/>
+          <a:ext cx="1080000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="3040102319">
+                <a:custGeom>
+                  <a:avLst/>
+                  <a:gdLst>
+                    <a:gd name="connsiteX0" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY0" fmla="*/ 0 h 2160000"/>
+                    <a:gd name="connsiteX1" fmla="*/ 376428 w 723900"/>
+                    <a:gd name="connsiteY1" fmla="*/ 0 h 2160000"/>
+                    <a:gd name="connsiteX2" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY2" fmla="*/ 0 h 2160000"/>
+                    <a:gd name="connsiteX3" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY3" fmla="*/ 540000 h 2160000"/>
+                    <a:gd name="connsiteX4" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY4" fmla="*/ 1058400 h 2160000"/>
+                    <a:gd name="connsiteX5" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY5" fmla="*/ 1576800 h 2160000"/>
+                    <a:gd name="connsiteX6" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY6" fmla="*/ 2160000 h 2160000"/>
+                    <a:gd name="connsiteX7" fmla="*/ 376428 w 723900"/>
+                    <a:gd name="connsiteY7" fmla="*/ 2160000 h 2160000"/>
+                    <a:gd name="connsiteX8" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY8" fmla="*/ 2160000 h 2160000"/>
+                    <a:gd name="connsiteX9" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY9" fmla="*/ 1663200 h 2160000"/>
+                    <a:gd name="connsiteX10" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY10" fmla="*/ 1080000 h 2160000"/>
+                    <a:gd name="connsiteX11" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY11" fmla="*/ 583200 h 2160000"/>
+                    <a:gd name="connsiteX12" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY12" fmla="*/ 0 h 2160000"/>
+                  </a:gdLst>
+                  <a:ahLst/>
+                  <a:cxnLst>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX0" y="connsiteY0"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX1" y="connsiteY1"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX2" y="connsiteY2"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX3" y="connsiteY3"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX4" y="connsiteY4"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX5" y="connsiteY5"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX6" y="connsiteY6"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX7" y="connsiteY7"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX8" y="connsiteY8"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX9" y="connsiteY9"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX10" y="connsiteY10"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX11" y="connsiteY11"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX12" y="connsiteY12"/>
+                    </a:cxn>
+                  </a:cxnLst>
+                  <a:rect l="l" t="t" r="r" b="b"/>
+                  <a:pathLst>
+                    <a:path w="723900" h="2160000" extrusionOk="0">
+                      <a:moveTo>
+                        <a:pt x="0" y="0"/>
+                      </a:moveTo>
+                      <a:cubicBezTo>
+                        <a:pt x="179202" y="-5312"/>
+                        <a:pt x="266157" y="-18102"/>
+                        <a:pt x="376428" y="0"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="486699" y="18102"/>
+                        <a:pt x="627211" y="10517"/>
+                        <a:pt x="723900" y="0"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="736546" y="211025"/>
+                        <a:pt x="714310" y="328813"/>
+                        <a:pt x="723900" y="540000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="733490" y="751187"/>
+                        <a:pt x="703116" y="917272"/>
+                        <a:pt x="723900" y="1058400"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="744684" y="1199528"/>
+                        <a:pt x="710782" y="1467652"/>
+                        <a:pt x="723900" y="1576800"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="737018" y="1685948"/>
+                        <a:pt x="711077" y="1988365"/>
+                        <a:pt x="723900" y="2160000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="573697" y="2169823"/>
+                        <a:pt x="446983" y="2153520"/>
+                        <a:pt x="376428" y="2160000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="305873" y="2166480"/>
+                        <a:pt x="133382" y="2176139"/>
+                        <a:pt x="0" y="2160000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="4218" y="1977549"/>
+                        <a:pt x="-20750" y="1909053"/>
+                        <a:pt x="0" y="1663200"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="20750" y="1417347"/>
+                        <a:pt x="-2476" y="1262701"/>
+                        <a:pt x="0" y="1080000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="2476" y="897299"/>
+                        <a:pt x="-24266" y="732610"/>
+                        <a:pt x="0" y="583200"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="24266" y="433790"/>
+                        <a:pt x="15382" y="283743"/>
+                        <a:pt x="0" y="0"/>
+                      </a:cubicBezTo>
+                      <a:close/>
+                    </a:path>
+                  </a:pathLst>
+                </a:custGeom>
+                <ask:type>
+                  <ask:lineSketchNone/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>189525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179999</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6B2E36-F5D3-46AB-BA79-08201EBE6526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="3800474"/>
+          <a:ext cx="180000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="3040102319">
+                <a:custGeom>
+                  <a:avLst/>
+                  <a:gdLst>
+                    <a:gd name="connsiteX0" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY0" fmla="*/ 0 h 2160000"/>
+                    <a:gd name="connsiteX1" fmla="*/ 376428 w 723900"/>
+                    <a:gd name="connsiteY1" fmla="*/ 0 h 2160000"/>
+                    <a:gd name="connsiteX2" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY2" fmla="*/ 0 h 2160000"/>
+                    <a:gd name="connsiteX3" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY3" fmla="*/ 540000 h 2160000"/>
+                    <a:gd name="connsiteX4" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY4" fmla="*/ 1058400 h 2160000"/>
+                    <a:gd name="connsiteX5" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY5" fmla="*/ 1576800 h 2160000"/>
+                    <a:gd name="connsiteX6" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY6" fmla="*/ 2160000 h 2160000"/>
+                    <a:gd name="connsiteX7" fmla="*/ 376428 w 723900"/>
+                    <a:gd name="connsiteY7" fmla="*/ 2160000 h 2160000"/>
+                    <a:gd name="connsiteX8" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY8" fmla="*/ 2160000 h 2160000"/>
+                    <a:gd name="connsiteX9" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY9" fmla="*/ 1663200 h 2160000"/>
+                    <a:gd name="connsiteX10" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY10" fmla="*/ 1080000 h 2160000"/>
+                    <a:gd name="connsiteX11" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY11" fmla="*/ 583200 h 2160000"/>
+                    <a:gd name="connsiteX12" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY12" fmla="*/ 0 h 2160000"/>
+                  </a:gdLst>
+                  <a:ahLst/>
+                  <a:cxnLst>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX0" y="connsiteY0"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX1" y="connsiteY1"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX2" y="connsiteY2"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX3" y="connsiteY3"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX4" y="connsiteY4"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX5" y="connsiteY5"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX6" y="connsiteY6"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX7" y="connsiteY7"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX8" y="connsiteY8"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX9" y="connsiteY9"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX10" y="connsiteY10"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX11" y="connsiteY11"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX12" y="connsiteY12"/>
+                    </a:cxn>
+                  </a:cxnLst>
+                  <a:rect l="l" t="t" r="r" b="b"/>
+                  <a:pathLst>
+                    <a:path w="723900" h="2160000" extrusionOk="0">
+                      <a:moveTo>
+                        <a:pt x="0" y="0"/>
+                      </a:moveTo>
+                      <a:cubicBezTo>
+                        <a:pt x="179202" y="-5312"/>
+                        <a:pt x="266157" y="-18102"/>
+                        <a:pt x="376428" y="0"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="486699" y="18102"/>
+                        <a:pt x="627211" y="10517"/>
+                        <a:pt x="723900" y="0"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="736546" y="211025"/>
+                        <a:pt x="714310" y="328813"/>
+                        <a:pt x="723900" y="540000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="733490" y="751187"/>
+                        <a:pt x="703116" y="917272"/>
+                        <a:pt x="723900" y="1058400"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="744684" y="1199528"/>
+                        <a:pt x="710782" y="1467652"/>
+                        <a:pt x="723900" y="1576800"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="737018" y="1685948"/>
+                        <a:pt x="711077" y="1988365"/>
+                        <a:pt x="723900" y="2160000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="573697" y="2169823"/>
+                        <a:pt x="446983" y="2153520"/>
+                        <a:pt x="376428" y="2160000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="305873" y="2166480"/>
+                        <a:pt x="133382" y="2176139"/>
+                        <a:pt x="0" y="2160000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="4218" y="1977549"/>
+                        <a:pt x="-20750" y="1909053"/>
+                        <a:pt x="0" y="1663200"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="20750" y="1417347"/>
+                        <a:pt x="-2476" y="1262701"/>
+                        <a:pt x="0" y="1080000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="2476" y="897299"/>
+                        <a:pt x="-24266" y="732610"/>
+                        <a:pt x="0" y="583200"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="24266" y="433790"/>
+                        <a:pt x="15382" y="283743"/>
+                        <a:pt x="0" y="0"/>
+                      </a:cubicBezTo>
+                      <a:close/>
+                    </a:path>
+                  </a:pathLst>
+                </a:custGeom>
+                <ask:type>
+                  <ask:lineSketchNone/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>169500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>17100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B657E3A7-2293-4C9F-9D97-17AA0C8B2834}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="742950"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="3040102319">
+                <a:custGeom>
+                  <a:avLst/>
+                  <a:gdLst>
+                    <a:gd name="connsiteX0" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY0" fmla="*/ 0 h 2160000"/>
+                    <a:gd name="connsiteX1" fmla="*/ 376428 w 723900"/>
+                    <a:gd name="connsiteY1" fmla="*/ 0 h 2160000"/>
+                    <a:gd name="connsiteX2" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY2" fmla="*/ 0 h 2160000"/>
+                    <a:gd name="connsiteX3" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY3" fmla="*/ 540000 h 2160000"/>
+                    <a:gd name="connsiteX4" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY4" fmla="*/ 1058400 h 2160000"/>
+                    <a:gd name="connsiteX5" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY5" fmla="*/ 1576800 h 2160000"/>
+                    <a:gd name="connsiteX6" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY6" fmla="*/ 2160000 h 2160000"/>
+                    <a:gd name="connsiteX7" fmla="*/ 376428 w 723900"/>
+                    <a:gd name="connsiteY7" fmla="*/ 2160000 h 2160000"/>
+                    <a:gd name="connsiteX8" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY8" fmla="*/ 2160000 h 2160000"/>
+                    <a:gd name="connsiteX9" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY9" fmla="*/ 1663200 h 2160000"/>
+                    <a:gd name="connsiteX10" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY10" fmla="*/ 1080000 h 2160000"/>
+                    <a:gd name="connsiteX11" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY11" fmla="*/ 583200 h 2160000"/>
+                    <a:gd name="connsiteX12" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY12" fmla="*/ 0 h 2160000"/>
+                  </a:gdLst>
+                  <a:ahLst/>
+                  <a:cxnLst>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX0" y="connsiteY0"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX1" y="connsiteY1"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX2" y="connsiteY2"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX3" y="connsiteY3"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX4" y="connsiteY4"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX5" y="connsiteY5"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX6" y="connsiteY6"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX7" y="connsiteY7"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX8" y="connsiteY8"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX9" y="connsiteY9"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX10" y="connsiteY10"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX11" y="connsiteY11"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX12" y="connsiteY12"/>
+                    </a:cxn>
+                  </a:cxnLst>
+                  <a:rect l="l" t="t" r="r" b="b"/>
+                  <a:pathLst>
+                    <a:path w="723900" h="2160000" extrusionOk="0">
+                      <a:moveTo>
+                        <a:pt x="0" y="0"/>
+                      </a:moveTo>
+                      <a:cubicBezTo>
+                        <a:pt x="179202" y="-5312"/>
+                        <a:pt x="266157" y="-18102"/>
+                        <a:pt x="376428" y="0"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="486699" y="18102"/>
+                        <a:pt x="627211" y="10517"/>
+                        <a:pt x="723900" y="0"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="736546" y="211025"/>
+                        <a:pt x="714310" y="328813"/>
+                        <a:pt x="723900" y="540000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="733490" y="751187"/>
+                        <a:pt x="703116" y="917272"/>
+                        <a:pt x="723900" y="1058400"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="744684" y="1199528"/>
+                        <a:pt x="710782" y="1467652"/>
+                        <a:pt x="723900" y="1576800"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="737018" y="1685948"/>
+                        <a:pt x="711077" y="1988365"/>
+                        <a:pt x="723900" y="2160000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="573697" y="2169823"/>
+                        <a:pt x="446983" y="2153520"/>
+                        <a:pt x="376428" y="2160000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="305873" y="2166480"/>
+                        <a:pt x="133382" y="2176139"/>
+                        <a:pt x="0" y="2160000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="4218" y="1977549"/>
+                        <a:pt x="-20750" y="1909053"/>
+                        <a:pt x="0" y="1663200"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="20750" y="1417347"/>
+                        <a:pt x="-2476" y="1262701"/>
+                        <a:pt x="0" y="1080000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="2476" y="897299"/>
+                        <a:pt x="-24266" y="732610"/>
+                        <a:pt x="0" y="583200"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="24266" y="433790"/>
+                        <a:pt x="15382" y="283743"/>
+                        <a:pt x="0" y="0"/>
+                      </a:cubicBezTo>
+                      <a:close/>
+                    </a:path>
+                  </a:pathLst>
+                </a:custGeom>
+                <ask:type>
+                  <ask:lineSketchNone/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>84525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D8A21BB-4517-4169-90E3-CE2ACEDCF612}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="1095375"/>
+          <a:ext cx="2286000" cy="1522800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="3040102319">
+                <a:custGeom>
+                  <a:avLst/>
+                  <a:gdLst>
+                    <a:gd name="connsiteX0" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY0" fmla="*/ 0 h 2160000"/>
+                    <a:gd name="connsiteX1" fmla="*/ 376428 w 723900"/>
+                    <a:gd name="connsiteY1" fmla="*/ 0 h 2160000"/>
+                    <a:gd name="connsiteX2" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY2" fmla="*/ 0 h 2160000"/>
+                    <a:gd name="connsiteX3" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY3" fmla="*/ 540000 h 2160000"/>
+                    <a:gd name="connsiteX4" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY4" fmla="*/ 1058400 h 2160000"/>
+                    <a:gd name="connsiteX5" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY5" fmla="*/ 1576800 h 2160000"/>
+                    <a:gd name="connsiteX6" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY6" fmla="*/ 2160000 h 2160000"/>
+                    <a:gd name="connsiteX7" fmla="*/ 376428 w 723900"/>
+                    <a:gd name="connsiteY7" fmla="*/ 2160000 h 2160000"/>
+                    <a:gd name="connsiteX8" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY8" fmla="*/ 2160000 h 2160000"/>
+                    <a:gd name="connsiteX9" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY9" fmla="*/ 1663200 h 2160000"/>
+                    <a:gd name="connsiteX10" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY10" fmla="*/ 1080000 h 2160000"/>
+                    <a:gd name="connsiteX11" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY11" fmla="*/ 583200 h 2160000"/>
+                    <a:gd name="connsiteX12" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY12" fmla="*/ 0 h 2160000"/>
+                  </a:gdLst>
+                  <a:ahLst/>
+                  <a:cxnLst>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX0" y="connsiteY0"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX1" y="connsiteY1"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX2" y="connsiteY2"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX3" y="connsiteY3"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX4" y="connsiteY4"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX5" y="connsiteY5"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX6" y="connsiteY6"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX7" y="connsiteY7"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX8" y="connsiteY8"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX9" y="connsiteY9"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX10" y="connsiteY10"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX11" y="connsiteY11"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX12" y="connsiteY12"/>
+                    </a:cxn>
+                  </a:cxnLst>
+                  <a:rect l="l" t="t" r="r" b="b"/>
+                  <a:pathLst>
+                    <a:path w="723900" h="2160000" extrusionOk="0">
+                      <a:moveTo>
+                        <a:pt x="0" y="0"/>
+                      </a:moveTo>
+                      <a:cubicBezTo>
+                        <a:pt x="179202" y="-5312"/>
+                        <a:pt x="266157" y="-18102"/>
+                        <a:pt x="376428" y="0"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="486699" y="18102"/>
+                        <a:pt x="627211" y="10517"/>
+                        <a:pt x="723900" y="0"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="736546" y="211025"/>
+                        <a:pt x="714310" y="328813"/>
+                        <a:pt x="723900" y="540000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="733490" y="751187"/>
+                        <a:pt x="703116" y="917272"/>
+                        <a:pt x="723900" y="1058400"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="744684" y="1199528"/>
+                        <a:pt x="710782" y="1467652"/>
+                        <a:pt x="723900" y="1576800"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="737018" y="1685948"/>
+                        <a:pt x="711077" y="1988365"/>
+                        <a:pt x="723900" y="2160000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="573697" y="2169823"/>
+                        <a:pt x="446983" y="2153520"/>
+                        <a:pt x="376428" y="2160000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="305873" y="2166480"/>
+                        <a:pt x="133382" y="2176139"/>
+                        <a:pt x="0" y="2160000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="4218" y="1977549"/>
+                        <a:pt x="-20750" y="1909053"/>
+                        <a:pt x="0" y="1663200"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="20750" y="1417347"/>
+                        <a:pt x="-2476" y="1262701"/>
+                        <a:pt x="0" y="1080000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="2476" y="897299"/>
+                        <a:pt x="-24266" y="732610"/>
+                        <a:pt x="0" y="583200"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="24266" y="433790"/>
+                        <a:pt x="15382" y="283743"/>
+                        <a:pt x="0" y="0"/>
+                      </a:cubicBezTo>
+                      <a:close/>
+                    </a:path>
+                  </a:pathLst>
+                </a:custGeom>
+                <ask:type>
+                  <ask:lineSketchNone/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>18825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>79650</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>3225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC19C5BD-FDDF-4E95-AD2F-6678058CC524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="6895875"/>
+          <a:ext cx="2880000" cy="2880000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="3040102319">
+                <a:custGeom>
+                  <a:avLst/>
+                  <a:gdLst>
+                    <a:gd name="connsiteX0" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY0" fmla="*/ 0 h 2160000"/>
+                    <a:gd name="connsiteX1" fmla="*/ 376428 w 723900"/>
+                    <a:gd name="connsiteY1" fmla="*/ 0 h 2160000"/>
+                    <a:gd name="connsiteX2" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY2" fmla="*/ 0 h 2160000"/>
+                    <a:gd name="connsiteX3" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY3" fmla="*/ 540000 h 2160000"/>
+                    <a:gd name="connsiteX4" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY4" fmla="*/ 1058400 h 2160000"/>
+                    <a:gd name="connsiteX5" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY5" fmla="*/ 1576800 h 2160000"/>
+                    <a:gd name="connsiteX6" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY6" fmla="*/ 2160000 h 2160000"/>
+                    <a:gd name="connsiteX7" fmla="*/ 376428 w 723900"/>
+                    <a:gd name="connsiteY7" fmla="*/ 2160000 h 2160000"/>
+                    <a:gd name="connsiteX8" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY8" fmla="*/ 2160000 h 2160000"/>
+                    <a:gd name="connsiteX9" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY9" fmla="*/ 1663200 h 2160000"/>
+                    <a:gd name="connsiteX10" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY10" fmla="*/ 1080000 h 2160000"/>
+                    <a:gd name="connsiteX11" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY11" fmla="*/ 583200 h 2160000"/>
+                    <a:gd name="connsiteX12" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY12" fmla="*/ 0 h 2160000"/>
+                  </a:gdLst>
+                  <a:ahLst/>
+                  <a:cxnLst>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX0" y="connsiteY0"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX1" y="connsiteY1"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX2" y="connsiteY2"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX3" y="connsiteY3"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX4" y="connsiteY4"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX5" y="connsiteY5"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX6" y="connsiteY6"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX7" y="connsiteY7"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX8" y="connsiteY8"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX9" y="connsiteY9"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX10" y="connsiteY10"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX11" y="connsiteY11"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX12" y="connsiteY12"/>
+                    </a:cxn>
+                  </a:cxnLst>
+                  <a:rect l="l" t="t" r="r" b="b"/>
+                  <a:pathLst>
+                    <a:path w="723900" h="2160000" extrusionOk="0">
+                      <a:moveTo>
+                        <a:pt x="0" y="0"/>
+                      </a:moveTo>
+                      <a:cubicBezTo>
+                        <a:pt x="179202" y="-5312"/>
+                        <a:pt x="266157" y="-18102"/>
+                        <a:pt x="376428" y="0"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="486699" y="18102"/>
+                        <a:pt x="627211" y="10517"/>
+                        <a:pt x="723900" y="0"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="736546" y="211025"/>
+                        <a:pt x="714310" y="328813"/>
+                        <a:pt x="723900" y="540000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="733490" y="751187"/>
+                        <a:pt x="703116" y="917272"/>
+                        <a:pt x="723900" y="1058400"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="744684" y="1199528"/>
+                        <a:pt x="710782" y="1467652"/>
+                        <a:pt x="723900" y="1576800"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="737018" y="1685948"/>
+                        <a:pt x="711077" y="1988365"/>
+                        <a:pt x="723900" y="2160000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="573697" y="2169823"/>
+                        <a:pt x="446983" y="2153520"/>
+                        <a:pt x="376428" y="2160000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="305873" y="2166480"/>
+                        <a:pt x="133382" y="2176139"/>
+                        <a:pt x="0" y="2160000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="4218" y="1977549"/>
+                        <a:pt x="-20750" y="1909053"/>
+                        <a:pt x="0" y="1663200"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="20750" y="1417347"/>
+                        <a:pt x="-2476" y="1262701"/>
+                        <a:pt x="0" y="1080000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="2476" y="897299"/>
+                        <a:pt x="-24266" y="732610"/>
+                        <a:pt x="0" y="583200"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="24266" y="433790"/>
+                        <a:pt x="15382" y="283743"/>
+                        <a:pt x="0" y="0"/>
+                      </a:cubicBezTo>
+                      <a:close/>
+                    </a:path>
+                  </a:pathLst>
+                </a:custGeom>
+                <ask:type>
+                  <ask:lineSketchNone/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ADED20E-B8C8-4891-99B7-55065E56C41B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="733425"/>
+          <a:ext cx="3006000" cy="2242800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="3040102319">
+                <a:custGeom>
+                  <a:avLst/>
+                  <a:gdLst>
+                    <a:gd name="connsiteX0" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY0" fmla="*/ 0 h 2160000"/>
+                    <a:gd name="connsiteX1" fmla="*/ 376428 w 723900"/>
+                    <a:gd name="connsiteY1" fmla="*/ 0 h 2160000"/>
+                    <a:gd name="connsiteX2" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY2" fmla="*/ 0 h 2160000"/>
+                    <a:gd name="connsiteX3" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY3" fmla="*/ 540000 h 2160000"/>
+                    <a:gd name="connsiteX4" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY4" fmla="*/ 1058400 h 2160000"/>
+                    <a:gd name="connsiteX5" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY5" fmla="*/ 1576800 h 2160000"/>
+                    <a:gd name="connsiteX6" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY6" fmla="*/ 2160000 h 2160000"/>
+                    <a:gd name="connsiteX7" fmla="*/ 376428 w 723900"/>
+                    <a:gd name="connsiteY7" fmla="*/ 2160000 h 2160000"/>
+                    <a:gd name="connsiteX8" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY8" fmla="*/ 2160000 h 2160000"/>
+                    <a:gd name="connsiteX9" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY9" fmla="*/ 1663200 h 2160000"/>
+                    <a:gd name="connsiteX10" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY10" fmla="*/ 1080000 h 2160000"/>
+                    <a:gd name="connsiteX11" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY11" fmla="*/ 583200 h 2160000"/>
+                    <a:gd name="connsiteX12" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY12" fmla="*/ 0 h 2160000"/>
+                  </a:gdLst>
+                  <a:ahLst/>
+                  <a:cxnLst>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX0" y="connsiteY0"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX1" y="connsiteY1"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX2" y="connsiteY2"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX3" y="connsiteY3"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX4" y="connsiteY4"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX5" y="connsiteY5"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX6" y="connsiteY6"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX7" y="connsiteY7"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX8" y="connsiteY8"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX9" y="connsiteY9"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX10" y="connsiteY10"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX11" y="connsiteY11"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX12" y="connsiteY12"/>
+                    </a:cxn>
+                  </a:cxnLst>
+                  <a:rect l="l" t="t" r="r" b="b"/>
+                  <a:pathLst>
+                    <a:path w="723900" h="2160000" extrusionOk="0">
+                      <a:moveTo>
+                        <a:pt x="0" y="0"/>
+                      </a:moveTo>
+                      <a:cubicBezTo>
+                        <a:pt x="179202" y="-5312"/>
+                        <a:pt x="266157" y="-18102"/>
+                        <a:pt x="376428" y="0"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="486699" y="18102"/>
+                        <a:pt x="627211" y="10517"/>
+                        <a:pt x="723900" y="0"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="736546" y="211025"/>
+                        <a:pt x="714310" y="328813"/>
+                        <a:pt x="723900" y="540000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="733490" y="751187"/>
+                        <a:pt x="703116" y="917272"/>
+                        <a:pt x="723900" y="1058400"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="744684" y="1199528"/>
+                        <a:pt x="710782" y="1467652"/>
+                        <a:pt x="723900" y="1576800"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="737018" y="1685948"/>
+                        <a:pt x="711077" y="1988365"/>
+                        <a:pt x="723900" y="2160000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="573697" y="2169823"/>
+                        <a:pt x="446983" y="2153520"/>
+                        <a:pt x="376428" y="2160000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="305873" y="2166480"/>
+                        <a:pt x="133382" y="2176139"/>
+                        <a:pt x="0" y="2160000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="4218" y="1977549"/>
+                        <a:pt x="-20750" y="1909053"/>
+                        <a:pt x="0" y="1663200"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="20750" y="1417347"/>
+                        <a:pt x="-2476" y="1262701"/>
+                        <a:pt x="0" y="1080000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="2476" y="897299"/>
+                        <a:pt x="-24266" y="732610"/>
+                        <a:pt x="0" y="583200"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="24266" y="433790"/>
+                        <a:pt x="15382" y="283743"/>
+                        <a:pt x="0" y="0"/>
+                      </a:cubicBezTo>
+                      <a:close/>
+                    </a:path>
+                  </a:pathLst>
+                </a:custGeom>
+                <ask:type>
+                  <ask:lineSketchNone/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>49350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>3674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E120644-498D-4C07-BD92-4577E568D30B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="3809999"/>
+          <a:ext cx="1440000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="3040102319">
+                <a:custGeom>
+                  <a:avLst/>
+                  <a:gdLst>
+                    <a:gd name="connsiteX0" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY0" fmla="*/ 0 h 2160000"/>
+                    <a:gd name="connsiteX1" fmla="*/ 376428 w 723900"/>
+                    <a:gd name="connsiteY1" fmla="*/ 0 h 2160000"/>
+                    <a:gd name="connsiteX2" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY2" fmla="*/ 0 h 2160000"/>
+                    <a:gd name="connsiteX3" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY3" fmla="*/ 540000 h 2160000"/>
+                    <a:gd name="connsiteX4" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY4" fmla="*/ 1058400 h 2160000"/>
+                    <a:gd name="connsiteX5" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY5" fmla="*/ 1576800 h 2160000"/>
+                    <a:gd name="connsiteX6" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY6" fmla="*/ 2160000 h 2160000"/>
+                    <a:gd name="connsiteX7" fmla="*/ 376428 w 723900"/>
+                    <a:gd name="connsiteY7" fmla="*/ 2160000 h 2160000"/>
+                    <a:gd name="connsiteX8" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY8" fmla="*/ 2160000 h 2160000"/>
+                    <a:gd name="connsiteX9" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY9" fmla="*/ 1663200 h 2160000"/>
+                    <a:gd name="connsiteX10" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY10" fmla="*/ 1080000 h 2160000"/>
+                    <a:gd name="connsiteX11" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY11" fmla="*/ 583200 h 2160000"/>
+                    <a:gd name="connsiteX12" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY12" fmla="*/ 0 h 2160000"/>
+                  </a:gdLst>
+                  <a:ahLst/>
+                  <a:cxnLst>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX0" y="connsiteY0"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX1" y="connsiteY1"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX2" y="connsiteY2"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX3" y="connsiteY3"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX4" y="connsiteY4"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX5" y="connsiteY5"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX6" y="connsiteY6"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX7" y="connsiteY7"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX8" y="connsiteY8"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX9" y="connsiteY9"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX10" y="connsiteY10"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX11" y="connsiteY11"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX12" y="connsiteY12"/>
+                    </a:cxn>
+                  </a:cxnLst>
+                  <a:rect l="l" t="t" r="r" b="b"/>
+                  <a:pathLst>
+                    <a:path w="723900" h="2160000" extrusionOk="0">
+                      <a:moveTo>
+                        <a:pt x="0" y="0"/>
+                      </a:moveTo>
+                      <a:cubicBezTo>
+                        <a:pt x="179202" y="-5312"/>
+                        <a:pt x="266157" y="-18102"/>
+                        <a:pt x="376428" y="0"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="486699" y="18102"/>
+                        <a:pt x="627211" y="10517"/>
+                        <a:pt x="723900" y="0"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="736546" y="211025"/>
+                        <a:pt x="714310" y="328813"/>
+                        <a:pt x="723900" y="540000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="733490" y="751187"/>
+                        <a:pt x="703116" y="917272"/>
+                        <a:pt x="723900" y="1058400"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="744684" y="1199528"/>
+                        <a:pt x="710782" y="1467652"/>
+                        <a:pt x="723900" y="1576800"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="737018" y="1685948"/>
+                        <a:pt x="711077" y="1988365"/>
+                        <a:pt x="723900" y="2160000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="573697" y="2169823"/>
+                        <a:pt x="446983" y="2153520"/>
+                        <a:pt x="376428" y="2160000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="305873" y="2166480"/>
+                        <a:pt x="133382" y="2176139"/>
+                        <a:pt x="0" y="2160000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="4218" y="1977549"/>
+                        <a:pt x="-20750" y="1909053"/>
+                        <a:pt x="0" y="1663200"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="20750" y="1417347"/>
+                        <a:pt x="-2476" y="1262701"/>
+                        <a:pt x="0" y="1080000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="2476" y="897299"/>
+                        <a:pt x="-24266" y="732610"/>
+                        <a:pt x="0" y="583200"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="24266" y="433790"/>
+                        <a:pt x="15382" y="283743"/>
+                        <a:pt x="0" y="0"/>
+                      </a:cubicBezTo>
+                      <a:close/>
+                    </a:path>
+                  </a:pathLst>
+                </a:custGeom>
+                <ask:type>
+                  <ask:lineSketchNone/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>79650</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>60150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22E4883F-0729-4481-9956-0982E7E57A72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="7381875"/>
+          <a:ext cx="2880000" cy="1908000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="3040102319">
+                <a:custGeom>
+                  <a:avLst/>
+                  <a:gdLst>
+                    <a:gd name="connsiteX0" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY0" fmla="*/ 0 h 2160000"/>
+                    <a:gd name="connsiteX1" fmla="*/ 376428 w 723900"/>
+                    <a:gd name="connsiteY1" fmla="*/ 0 h 2160000"/>
+                    <a:gd name="connsiteX2" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY2" fmla="*/ 0 h 2160000"/>
+                    <a:gd name="connsiteX3" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY3" fmla="*/ 540000 h 2160000"/>
+                    <a:gd name="connsiteX4" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY4" fmla="*/ 1058400 h 2160000"/>
+                    <a:gd name="connsiteX5" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY5" fmla="*/ 1576800 h 2160000"/>
+                    <a:gd name="connsiteX6" fmla="*/ 723900 w 723900"/>
+                    <a:gd name="connsiteY6" fmla="*/ 2160000 h 2160000"/>
+                    <a:gd name="connsiteX7" fmla="*/ 376428 w 723900"/>
+                    <a:gd name="connsiteY7" fmla="*/ 2160000 h 2160000"/>
+                    <a:gd name="connsiteX8" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY8" fmla="*/ 2160000 h 2160000"/>
+                    <a:gd name="connsiteX9" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY9" fmla="*/ 1663200 h 2160000"/>
+                    <a:gd name="connsiteX10" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY10" fmla="*/ 1080000 h 2160000"/>
+                    <a:gd name="connsiteX11" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY11" fmla="*/ 583200 h 2160000"/>
+                    <a:gd name="connsiteX12" fmla="*/ 0 w 723900"/>
+                    <a:gd name="connsiteY12" fmla="*/ 0 h 2160000"/>
+                  </a:gdLst>
+                  <a:ahLst/>
+                  <a:cxnLst>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX0" y="connsiteY0"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX1" y="connsiteY1"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX2" y="connsiteY2"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX3" y="connsiteY3"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX4" y="connsiteY4"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX5" y="connsiteY5"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX6" y="connsiteY6"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX7" y="connsiteY7"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX8" y="connsiteY8"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX9" y="connsiteY9"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX10" y="connsiteY10"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX11" y="connsiteY11"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX12" y="connsiteY12"/>
+                    </a:cxn>
+                  </a:cxnLst>
+                  <a:rect l="l" t="t" r="r" b="b"/>
+                  <a:pathLst>
+                    <a:path w="723900" h="2160000" extrusionOk="0">
+                      <a:moveTo>
+                        <a:pt x="0" y="0"/>
+                      </a:moveTo>
+                      <a:cubicBezTo>
+                        <a:pt x="179202" y="-5312"/>
+                        <a:pt x="266157" y="-18102"/>
+                        <a:pt x="376428" y="0"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="486699" y="18102"/>
+                        <a:pt x="627211" y="10517"/>
+                        <a:pt x="723900" y="0"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="736546" y="211025"/>
+                        <a:pt x="714310" y="328813"/>
+                        <a:pt x="723900" y="540000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="733490" y="751187"/>
+                        <a:pt x="703116" y="917272"/>
+                        <a:pt x="723900" y="1058400"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="744684" y="1199528"/>
+                        <a:pt x="710782" y="1467652"/>
+                        <a:pt x="723900" y="1576800"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="737018" y="1685948"/>
+                        <a:pt x="711077" y="1988365"/>
+                        <a:pt x="723900" y="2160000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="573697" y="2169823"/>
+                        <a:pt x="446983" y="2153520"/>
+                        <a:pt x="376428" y="2160000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="305873" y="2166480"/>
+                        <a:pt x="133382" y="2176139"/>
+                        <a:pt x="0" y="2160000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="4218" y="1977549"/>
+                        <a:pt x="-20750" y="1909053"/>
+                        <a:pt x="0" y="1663200"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="20750" y="1417347"/>
+                        <a:pt x="-2476" y="1262701"/>
+                        <a:pt x="0" y="1080000"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="2476" y="897299"/>
+                        <a:pt x="-24266" y="732610"/>
+                        <a:pt x="0" y="583200"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="24266" y="433790"/>
+                        <a:pt x="15382" y="283743"/>
+                        <a:pt x="0" y="0"/>
+                      </a:cubicBezTo>
+                      <a:close/>
+                    </a:path>
+                  </a:pathLst>
+                </a:custGeom>
+                <ask:type>
+                  <ask:lineSketchNone/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:colOff>19051</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>956829</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4329</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>542925</xdr:rowOff>
+      <xdr:rowOff>628650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -270,7 +2143,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="468458" y="1836594"/>
+          <a:off x="476251" y="1924051"/>
           <a:ext cx="947303" cy="533399"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -579,10 +2452,1801 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB693E6-F323-42A4-997C-299BEE4C9CB9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AF54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AF2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="32" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+    </row>
+    <row r="2" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+    </row>
+    <row r="3" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="14"/>
+    </row>
+    <row r="4" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3">
+        <v>16</v>
+      </c>
+      <c r="I4" s="3">
+        <v>18</v>
+      </c>
+      <c r="J4" s="3">
+        <v>20</v>
+      </c>
+      <c r="K4" s="3">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3">
+        <v>24</v>
+      </c>
+      <c r="M4" s="3">
+        <v>26</v>
+      </c>
+      <c r="N4" s="3">
+        <v>28</v>
+      </c>
+      <c r="O4" s="3">
+        <v>30</v>
+      </c>
+      <c r="P4" s="3">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>34</v>
+      </c>
+      <c r="R4" s="3">
+        <v>36</v>
+      </c>
+      <c r="S4" s="3">
+        <v>38</v>
+      </c>
+      <c r="T4" s="3">
+        <v>40</v>
+      </c>
+      <c r="U4" s="3">
+        <v>42</v>
+      </c>
+      <c r="V4" s="3">
+        <v>44</v>
+      </c>
+      <c r="W4" s="3">
+        <v>46</v>
+      </c>
+      <c r="X4" s="3">
+        <v>48</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>50</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>54</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>56</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>58</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>60</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>62</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+    </row>
+    <row r="6" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+    </row>
+    <row r="7" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+    </row>
+    <row r="8" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+    </row>
+    <row r="9" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+    </row>
+    <row r="10" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+    </row>
+    <row r="11" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+    </row>
+    <row r="12" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+    </row>
+    <row r="13" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+    </row>
+    <row r="14" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+    </row>
+    <row r="15" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+    </row>
+    <row r="16" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+    </row>
+    <row r="17" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+    </row>
+    <row r="18" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+    </row>
+    <row r="19" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+    </row>
+    <row r="20" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+    </row>
+    <row r="21" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+    </row>
+    <row r="23" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+    </row>
+    <row r="24" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+    </row>
+    <row r="25" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+    </row>
+    <row r="26" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+    </row>
+    <row r="27" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+    </row>
+    <row r="28" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+    </row>
+    <row r="29" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+    </row>
+    <row r="30" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+    </row>
+    <row r="31" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+    </row>
+    <row r="32" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+    </row>
+    <row r="33" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+    </row>
+    <row r="34" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+    </row>
+    <row r="35" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
+    </row>
+    <row r="36" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="9"/>
+    </row>
+    <row r="37" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="9"/>
+      <c r="AD37" s="9"/>
+      <c r="AE37" s="9"/>
+      <c r="AF37" s="9"/>
+    </row>
+    <row r="39" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="9"/>
+      <c r="AC39" s="9"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
+    </row>
+    <row r="40" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="9"/>
+    </row>
+    <row r="41" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="9"/>
+      <c r="AC41" s="9"/>
+      <c r="AD41" s="9"/>
+      <c r="AE41" s="9"/>
+      <c r="AF41" s="9"/>
+    </row>
+    <row r="42" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
+      <c r="AC42" s="9"/>
+      <c r="AD42" s="9"/>
+      <c r="AE42" s="9"/>
+      <c r="AF42" s="9"/>
+    </row>
+    <row r="43" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
+      <c r="AC43" s="9"/>
+      <c r="AD43" s="9"/>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="9"/>
+    </row>
+    <row r="44" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="9"/>
+      <c r="AD44" s="9"/>
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="9"/>
+    </row>
+    <row r="45" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="9"/>
+      <c r="AD45" s="9"/>
+      <c r="AE45" s="9"/>
+      <c r="AF45" s="9"/>
+    </row>
+    <row r="46" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="9"/>
+      <c r="AD46" s="9"/>
+      <c r="AE46" s="9"/>
+      <c r="AF46" s="9"/>
+    </row>
+    <row r="47" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="9"/>
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="9"/>
+      <c r="AF47" s="9"/>
+    </row>
+    <row r="48" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="9"/>
+      <c r="AB48" s="9"/>
+      <c r="AC48" s="9"/>
+      <c r="AD48" s="9"/>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="9"/>
+    </row>
+    <row r="49" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="9"/>
+      <c r="AB49" s="9"/>
+      <c r="AC49" s="9"/>
+      <c r="AD49" s="9"/>
+      <c r="AE49" s="9"/>
+      <c r="AF49" s="9"/>
+    </row>
+    <row r="50" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
+      <c r="AA50" s="9"/>
+      <c r="AB50" s="9"/>
+      <c r="AC50" s="9"/>
+      <c r="AD50" s="9"/>
+      <c r="AE50" s="9"/>
+      <c r="AF50" s="9"/>
+    </row>
+    <row r="51" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
+      <c r="AE51" s="9"/>
+      <c r="AF51" s="9"/>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="9"/>
+      <c r="AC52" s="9"/>
+      <c r="AD52" s="9"/>
+      <c r="AE52" s="9"/>
+      <c r="AF52" s="9"/>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="9"/>
+      <c r="AD53" s="9"/>
+      <c r="AE53" s="9"/>
+      <c r="AF53" s="9"/>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
+      <c r="AB54" s="9"/>
+      <c r="AC54" s="9"/>
+      <c r="AD54" s="9"/>
+      <c r="AE54" s="9"/>
+      <c r="AF54" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="X22:AF37"/>
+    <mergeCell ref="X5:AF20"/>
+    <mergeCell ref="X39:AF54"/>
+    <mergeCell ref="A1:AF2"/>
+    <mergeCell ref="X3:AF3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:W3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A84023-863D-424B-8F28-AA97F17132F8}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -594,21 +4258,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
@@ -619,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -631,10 +4295,10 @@
         <f t="shared" ref="A4:A7" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8"/>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>

--- a/TemplateGOTests/data/image.xlsx
+++ b/TemplateGOTests/data/image.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\template-go\TemplateGOTests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E5DCEB-2AE8-441C-947B-4BC955BF7890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32CF41F-498D-4A8C-968D-D7A4A16DD198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="390" windowWidth="17010" windowHeight="14715" xr2:uid="{40F13A56-BB45-4C50-B798-DA250D12F3B8}"/>
+    <workbookView xWindow="10545" yWindow="135" windowWidth="18300" windowHeight="14775" xr2:uid="{40F13A56-BB45-4C50-B798-DA250D12F3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="大小及位置测试" sheetId="3" r:id="rId1"/>
     <sheet name="图片测试" sheetId="1" r:id="rId2"/>
+    <sheet name="与图片测试引用相同图片" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">大小及位置测试!$A$1:$AF$58</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>#</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -63,14 +64,6 @@
   </si>
   <si>
     <t>来自网络，合并单元格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自文件，但已经存在图片时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${file|image}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -99,11 +92,41 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>${url|image:fh=2cm}</t>
+    <t>${file| image : padding = 0.1cm, fw = 2cm}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${file| image : padding = 0.1cm, fw = 2cm}</t>
+    <t>来自文件，但已经存在图片时
+要求删除原有图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${file|image:deleteMarked,fw=1.5cm}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${file|image:fw=1.5cm}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧原有图片不删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${url|image:fh=2cm,deleteMarked}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${path|image:fh=2cm,deleteMarked}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自网络路径
+删除其它Sheet也在引用的图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${utl|image:fh=2cm}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -301,18 +324,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -331,6 +342,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2145,6 +2171,159 @@
         <a:xfrm>
           <a:off x="476251" y="1924051"/>
           <a:ext cx="947303" cy="533399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="947303" cy="533399"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0ECD67-3887-43D3-9E8F-0268468409A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476251" y="1924051"/>
+          <a:ext cx="947303" cy="533399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>654291</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95685F9D-D86C-AEEB-7CBD-31029AD9DB9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="3181350"/>
+          <a:ext cx="1047750" cy="654291"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>673341</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF9F2BD-91C0-41FF-B388-4F99F18022AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="495300"/>
+          <a:ext cx="1047750" cy="654291"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2468,114 +2647,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
     </row>
     <row r="2" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
     </row>
     <row r="3" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="12" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="14"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="10"/>
     </row>
     <row r="4" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -2677,7 +2856,7 @@
     </row>
     <row r="5" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -2699,17 +2878,17 @@
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
-      <c r="X5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
+      <c r="X5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
     </row>
     <row r="6" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="4"/>
@@ -2733,15 +2912,15 @@
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
     </row>
     <row r="7" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="4"/>
@@ -2765,15 +2944,15 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
     </row>
     <row r="8" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="4"/>
@@ -2797,15 +2976,15 @@
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
     </row>
     <row r="9" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="4"/>
@@ -2829,15 +3008,15 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
     </row>
     <row r="10" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="4"/>
@@ -2861,15 +3040,15 @@
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
     </row>
     <row r="11" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="4"/>
@@ -2893,15 +3072,15 @@
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
     </row>
     <row r="12" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="4"/>
@@ -2925,15 +3104,15 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
     </row>
     <row r="13" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="4"/>
@@ -2957,15 +3136,15 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
     </row>
     <row r="14" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="4"/>
@@ -2989,15 +3168,15 @@
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
     </row>
     <row r="15" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="4"/>
@@ -3021,15 +3200,15 @@
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
     </row>
     <row r="16" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="4"/>
@@ -3053,15 +3232,15 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
     </row>
     <row r="17" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="4"/>
@@ -3085,15 +3264,15 @@
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
     </row>
     <row r="18" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="4"/>
@@ -3117,15 +3296,15 @@
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
     </row>
     <row r="19" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="4"/>
@@ -3149,15 +3328,15 @@
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
     </row>
     <row r="20" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="4"/>
@@ -3181,20 +3360,20 @@
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
     </row>
     <row r="21" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -3216,17 +3395,17 @@
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
-      <c r="X22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
+      <c r="X22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
     </row>
     <row r="23" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="4"/>
@@ -3250,15 +3429,15 @@
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
     </row>
     <row r="24" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="4"/>
@@ -3282,15 +3461,15 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
     </row>
     <row r="25" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="4"/>
@@ -3314,15 +3493,15 @@
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
     </row>
     <row r="26" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="4"/>
@@ -3346,15 +3525,15 @@
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
     </row>
     <row r="27" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="4"/>
@@ -3378,15 +3557,15 @@
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
     </row>
     <row r="28" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="4"/>
@@ -3410,15 +3589,15 @@
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
     </row>
     <row r="29" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="4"/>
@@ -3442,15 +3621,15 @@
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="9"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
     </row>
     <row r="30" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="4"/>
@@ -3474,15 +3653,15 @@
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
     </row>
     <row r="31" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="4"/>
@@ -3506,15 +3685,15 @@
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
     </row>
     <row r="32" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="4"/>
@@ -3538,15 +3717,15 @@
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
     </row>
     <row r="33" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="4"/>
@@ -3570,15 +3749,15 @@
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
     </row>
     <row r="34" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="4"/>
@@ -3602,15 +3781,15 @@
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="9"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
     </row>
     <row r="35" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C35" s="4"/>
@@ -3634,15 +3813,15 @@
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="9"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
     </row>
     <row r="36" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C36" s="4"/>
@@ -3666,15 +3845,15 @@
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="9"/>
-      <c r="AE36" s="9"/>
-      <c r="AF36" s="9"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
     </row>
     <row r="37" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C37" s="4"/>
@@ -3698,19 +3877,19 @@
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="9"/>
-      <c r="AD37" s="9"/>
-      <c r="AE37" s="9"/>
-      <c r="AF37" s="9"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
     </row>
     <row r="39" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3732,17 +3911,17 @@
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
-      <c r="X39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
-      <c r="AC39" s="9"/>
-      <c r="AD39" s="9"/>
-      <c r="AE39" s="9"/>
-      <c r="AF39" s="9"/>
+      <c r="X39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
     </row>
     <row r="40" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="4"/>
@@ -3766,15 +3945,15 @@
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="9"/>
-      <c r="AC40" s="9"/>
-      <c r="AD40" s="9"/>
-      <c r="AE40" s="9"/>
-      <c r="AF40" s="9"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
     </row>
     <row r="41" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="4"/>
@@ -3798,15 +3977,15 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="9"/>
-      <c r="AC41" s="9"/>
-      <c r="AD41" s="9"/>
-      <c r="AE41" s="9"/>
-      <c r="AF41" s="9"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
     </row>
     <row r="42" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="4"/>
@@ -3830,15 +4009,15 @@
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="9"/>
-      <c r="AC42" s="9"/>
-      <c r="AD42" s="9"/>
-      <c r="AE42" s="9"/>
-      <c r="AF42" s="9"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
     </row>
     <row r="43" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="4"/>
@@ -3862,15 +4041,15 @@
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
-      <c r="AC43" s="9"/>
-      <c r="AD43" s="9"/>
-      <c r="AE43" s="9"/>
-      <c r="AF43" s="9"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
     </row>
     <row r="44" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="4"/>
@@ -3894,15 +4073,15 @@
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="9"/>
-      <c r="AC44" s="9"/>
-      <c r="AD44" s="9"/>
-      <c r="AE44" s="9"/>
-      <c r="AF44" s="9"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
     </row>
     <row r="45" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="4"/>
@@ -3926,15 +4105,15 @@
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
-      <c r="AB45" s="9"/>
-      <c r="AC45" s="9"/>
-      <c r="AD45" s="9"/>
-      <c r="AE45" s="9"/>
-      <c r="AF45" s="9"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
     </row>
     <row r="46" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="4"/>
@@ -3958,15 +4137,15 @@
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-      <c r="AC46" s="9"/>
-      <c r="AD46" s="9"/>
-      <c r="AE46" s="9"/>
-      <c r="AF46" s="9"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
     </row>
     <row r="47" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="4"/>
@@ -3990,15 +4169,15 @@
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="9"/>
-      <c r="AB47" s="9"/>
-      <c r="AC47" s="9"/>
-      <c r="AD47" s="9"/>
-      <c r="AE47" s="9"/>
-      <c r="AF47" s="9"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
     </row>
     <row r="48" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="4"/>
@@ -4022,15 +4201,15 @@
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="9"/>
-      <c r="AB48" s="9"/>
-      <c r="AC48" s="9"/>
-      <c r="AD48" s="9"/>
-      <c r="AE48" s="9"/>
-      <c r="AF48" s="9"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
     </row>
     <row r="49" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="4"/>
@@ -4054,15 +4233,15 @@
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
-      <c r="AA49" s="9"/>
-      <c r="AB49" s="9"/>
-      <c r="AC49" s="9"/>
-      <c r="AD49" s="9"/>
-      <c r="AE49" s="9"/>
-      <c r="AF49" s="9"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
     </row>
     <row r="50" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="4"/>
@@ -4086,15 +4265,15 @@
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
-      <c r="AA50" s="9"/>
-      <c r="AB50" s="9"/>
-      <c r="AC50" s="9"/>
-      <c r="AD50" s="9"/>
-      <c r="AE50" s="9"/>
-      <c r="AF50" s="9"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
     </row>
     <row r="51" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="4"/>
@@ -4118,15 +4297,15 @@
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
-      <c r="AA51" s="9"/>
-      <c r="AB51" s="9"/>
-      <c r="AC51" s="9"/>
-      <c r="AD51" s="9"/>
-      <c r="AE51" s="9"/>
-      <c r="AF51" s="9"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
     </row>
     <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="4"/>
@@ -4150,15 +4329,15 @@
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-      <c r="AA52" s="9"/>
-      <c r="AB52" s="9"/>
-      <c r="AC52" s="9"/>
-      <c r="AD52" s="9"/>
-      <c r="AE52" s="9"/>
-      <c r="AF52" s="9"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
     </row>
     <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="4"/>
@@ -4182,15 +4361,15 @@
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-      <c r="AA53" s="9"/>
-      <c r="AB53" s="9"/>
-      <c r="AC53" s="9"/>
-      <c r="AD53" s="9"/>
-      <c r="AE53" s="9"/>
-      <c r="AF53" s="9"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
     </row>
     <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="4"/>
@@ -4214,15 +4393,15 @@
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9"/>
-      <c r="AA54" s="9"/>
-      <c r="AB54" s="9"/>
-      <c r="AC54" s="9"/>
-      <c r="AD54" s="9"/>
-      <c r="AE54" s="9"/>
-      <c r="AF54" s="9"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4258,21 +4437,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4283,7 +4462,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -4295,10 +4474,10 @@
         <f t="shared" ref="A4:A7" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="8"/>
+      <c r="B4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="15"/>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
@@ -4309,11 +4488,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
+      <c r="D5" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4321,18 +4500,26 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4344,4 +4531,61 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDCFC0E-37AF-4823-84E4-CC9BBA77F97D}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="29.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <f t="shared" ref="A3" si="0">ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/TemplateGOTests/data/image.xlsx
+++ b/TemplateGOTests/data/image.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\template-go\TemplateGOTests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32CF41F-498D-4A8C-968D-D7A4A16DD198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D872FCA9-CD7A-47EF-82A6-77218B228847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="135" windowWidth="18300" windowHeight="14775" xr2:uid="{40F13A56-BB45-4C50-B798-DA250D12F3B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40F13A56-BB45-4C50-B798-DA250D12F3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="大小及位置测试" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>#</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -123,10 +123,6 @@
   <si>
     <t>来自网络路径
 删除其它Sheet也在引用的图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${utl|image:fh=2cm}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,6 +321,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -348,9 +347,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2647,114 +2643,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
     </row>
     <row r="2" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
     </row>
     <row r="3" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="8" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="11"/>
     </row>
     <row r="4" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -2878,17 +2874,17 @@
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
     </row>
     <row r="6" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="4"/>
@@ -2912,15 +2908,15 @@
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
     </row>
     <row r="7" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="4"/>
@@ -2944,15 +2940,15 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
     </row>
     <row r="8" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="4"/>
@@ -2976,15 +2972,15 @@
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
     </row>
     <row r="9" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="4"/>
@@ -3008,15 +3004,15 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
     </row>
     <row r="10" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="4"/>
@@ -3040,15 +3036,15 @@
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
     </row>
     <row r="11" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="4"/>
@@ -3072,15 +3068,15 @@
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
     </row>
     <row r="12" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="4"/>
@@ -3104,15 +3100,15 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
     </row>
     <row r="13" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="4"/>
@@ -3136,15 +3132,15 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
     </row>
     <row r="14" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="4"/>
@@ -3168,15 +3164,15 @@
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
     </row>
     <row r="15" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="4"/>
@@ -3200,15 +3196,15 @@
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
     </row>
     <row r="16" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="4"/>
@@ -3232,15 +3228,15 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
     </row>
     <row r="17" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="4"/>
@@ -3264,15 +3260,15 @@
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
     </row>
     <row r="18" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="4"/>
@@ -3296,15 +3292,15 @@
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
     </row>
     <row r="19" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="4"/>
@@ -3328,15 +3324,15 @@
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
     </row>
     <row r="20" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="4"/>
@@ -3360,15 +3356,15 @@
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
     </row>
     <row r="21" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3395,17 +3391,17 @@
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
-      <c r="X22" s="5" t="s">
+      <c r="X22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
     </row>
     <row r="23" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="4"/>
@@ -3429,15 +3425,15 @@
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
     </row>
     <row r="24" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="4"/>
@@ -3461,15 +3457,15 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
     </row>
     <row r="25" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="4"/>
@@ -3493,15 +3489,15 @@
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
     </row>
     <row r="26" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="4"/>
@@ -3525,15 +3521,15 @@
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
     </row>
     <row r="27" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="4"/>
@@ -3557,15 +3553,15 @@
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
     </row>
     <row r="28" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="4"/>
@@ -3589,15 +3585,15 @@
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
     </row>
     <row r="29" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="4"/>
@@ -3621,15 +3617,15 @@
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
     </row>
     <row r="30" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="4"/>
@@ -3653,15 +3649,15 @@
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
     </row>
     <row r="31" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="4"/>
@@ -3685,15 +3681,15 @@
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="5"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
     </row>
     <row r="32" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="4"/>
@@ -3717,15 +3713,15 @@
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="5"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
     </row>
     <row r="33" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="4"/>
@@ -3749,15 +3745,15 @@
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
     </row>
     <row r="34" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="4"/>
@@ -3781,15 +3777,15 @@
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
     </row>
     <row r="35" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C35" s="4"/>
@@ -3813,15 +3809,15 @@
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="5"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
     </row>
     <row r="36" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C36" s="4"/>
@@ -3845,15 +3841,15 @@
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="5"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
     </row>
     <row r="37" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C37" s="4"/>
@@ -3877,15 +3873,15 @@
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
-      <c r="AF37" s="5"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6"/>
     </row>
     <row r="39" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="4" t="s">
@@ -3911,17 +3907,17 @@
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
-      <c r="X39" s="5" t="s">
+      <c r="X39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
     </row>
     <row r="40" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="4"/>
@@ -3945,15 +3941,15 @@
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
-      <c r="AC40" s="5"/>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="5"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6"/>
     </row>
     <row r="41" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="4"/>
@@ -3977,15 +3973,15 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
     </row>
     <row r="42" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="4"/>
@@ -4009,15 +4005,15 @@
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
-      <c r="AD42" s="5"/>
-      <c r="AE42" s="5"/>
-      <c r="AF42" s="5"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
     </row>
     <row r="43" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="4"/>
@@ -4041,15 +4037,15 @@
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="5"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6"/>
     </row>
     <row r="44" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="4"/>
@@ -4073,15 +4069,15 @@
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="5"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="6"/>
     </row>
     <row r="45" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="4"/>
@@ -4105,15 +4101,15 @@
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
-      <c r="AC45" s="5"/>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
-      <c r="AF45" s="5"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6"/>
     </row>
     <row r="46" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="4"/>
@@ -4137,15 +4133,15 @@
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5"/>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="5"/>
-      <c r="AE46" s="5"/>
-      <c r="AF46" s="5"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="6"/>
     </row>
     <row r="47" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="4"/>
@@ -4169,15 +4165,15 @@
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="5"/>
-      <c r="AC47" s="5"/>
-      <c r="AD47" s="5"/>
-      <c r="AE47" s="5"/>
-      <c r="AF47" s="5"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="6"/>
     </row>
     <row r="48" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="4"/>
@@ -4201,15 +4197,15 @@
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="5"/>
-      <c r="AC48" s="5"/>
-      <c r="AD48" s="5"/>
-      <c r="AE48" s="5"/>
-      <c r="AF48" s="5"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
     </row>
     <row r="49" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="4"/>
@@ -4233,15 +4229,15 @@
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="5"/>
-      <c r="AC49" s="5"/>
-      <c r="AD49" s="5"/>
-      <c r="AE49" s="5"/>
-      <c r="AF49" s="5"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="6"/>
     </row>
     <row r="50" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="4"/>
@@ -4265,15 +4261,15 @@
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="5"/>
-      <c r="AB50" s="5"/>
-      <c r="AC50" s="5"/>
-      <c r="AD50" s="5"/>
-      <c r="AE50" s="5"/>
-      <c r="AF50" s="5"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="6"/>
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="6"/>
     </row>
     <row r="51" spans="3:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="4"/>
@@ -4297,15 +4293,15 @@
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-      <c r="AA51" s="5"/>
-      <c r="AB51" s="5"/>
-      <c r="AC51" s="5"/>
-      <c r="AD51" s="5"/>
-      <c r="AE51" s="5"/>
-      <c r="AF51" s="5"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6"/>
+      <c r="AF51" s="6"/>
     </row>
     <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="4"/>
@@ -4329,15 +4325,15 @@
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="5"/>
-      <c r="AB52" s="5"/>
-      <c r="AC52" s="5"/>
-      <c r="AD52" s="5"/>
-      <c r="AE52" s="5"/>
-      <c r="AF52" s="5"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
+      <c r="AF52" s="6"/>
     </row>
     <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="4"/>
@@ -4361,15 +4357,15 @@
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
-      <c r="AF53" s="5"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="6"/>
     </row>
     <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="4"/>
@@ -4393,15 +4389,15 @@
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
-      <c r="AC54" s="5"/>
-      <c r="AD54" s="5"/>
-      <c r="AE54" s="5"/>
-      <c r="AF54" s="5"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="6"/>
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="6"/>
+      <c r="AF54" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4437,21 +4433,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4491,7 +4487,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4517,7 +4513,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4549,35 +4545,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <f t="shared" ref="A3" si="0">ROW()-2</f>
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="13"/>
+      <c r="D3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
